--- a/ESPN sports website/IPL/Chennai Super Kings/Devon Conway.xlsx
+++ b/ESPN sports website/IPL/Chennai Super Kings/Devon Conway.xlsx
@@ -480,31 +480,31 @@
         <v>Devon Conway</v>
       </c>
       <c r="C3" t="str">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E3" t="str">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>154.54</v>
+        <v>55.55</v>
       </c>
       <c r="H3" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 01, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 13 runs</v>
+        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Devon Conway</v>
       </c>
       <c r="C4" t="str">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D4" t="str">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E4" t="str">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="str">
-        <v>151.35</v>
+        <v>154.54</v>
       </c>
       <c r="H4" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I4" t="str">
         <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>May 04, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>RCB won by 13 runs</v>
+        <v>Super Kings won by 13 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Devon Conway</v>
       </c>
       <c r="C5" t="str">
+        <v>87</v>
+      </c>
+      <c r="D5" t="str">
+        <v>49</v>
+      </c>
+      <c r="E5" t="str">
+        <v>7</v>
+      </c>
+      <c r="F5" t="str">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
-        <v>9</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0</v>
-      </c>
-      <c r="F5" t="str">
-        <v>0</v>
-      </c>
       <c r="G5" t="str">
-        <v>55.55</v>
+        <v>177.55</v>
       </c>
       <c r="H5" t="str">
-        <v>Gujarat Titans</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I5" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J5" t="str">
-        <v>May 15, 2022</v>
+        <v>May 08, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Titans won by 7 wickets (with 5 balls remaining)</v>
+        <v>Super Kings won by 91 runs</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         <v>Devon Conway</v>
       </c>
       <c r="C7" t="str">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>177.55</v>
+        <v>0.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Delhi Capitals</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>May 08, 2022</v>
+        <v>May 12, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Super Kings won by 91 runs</v>
+        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Devon Conway</v>
       </c>
       <c r="C8" t="str">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>0.00</v>
+        <v>151.35</v>
       </c>
       <c r="H8" t="str">
-        <v>Mumbai Indians</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I8" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J8" t="str">
-        <v>May 12, 2022</v>
+        <v>May 04, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Mumbai won by 5 wickets (with 31 balls remaining)</v>
+        <v>RCB won by 13 runs</v>
       </c>
     </row>
   </sheetData>
